--- a/ZLHLZQR_V2.0_IO_20181022_03.xlsx
+++ b/ZLHLZQR_V2.0_IO_20181022_03.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ZLHLZQR_A33\SchPCB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20775" windowHeight="9795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MCU1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="MCU1 归类" sheetId="4" r:id="rId3"/>
     <sheet name="MCU2 归类" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1330,10 +1325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>污水桶盖开限位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>污水桶盖关限位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,14 +1549,18 @@
   </si>
   <si>
     <t>STM32F105VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水桶盖开限位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,20 +1843,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,15 +1868,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,10 +1888,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1911,23 +1912,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,7 +1984,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2024,7 +2019,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2201,7 +2196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2215,7 +2210,7 @@
       <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
@@ -2225,7 +2220,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2233,7 +2228,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +2248,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2265,7 +2260,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2278,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2294,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2315,7 +2310,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2331,7 +2326,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2343,7 +2338,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2355,7 +2350,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2362,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2385,7 +2380,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2397,7 +2392,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2409,7 +2404,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2421,7 +2416,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2432,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2453,7 +2448,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2464,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -2485,7 +2480,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2501,7 +2496,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -2517,7 +2512,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -2535,7 +2530,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2548,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2571,7 +2566,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2589,7 +2584,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2607,7 +2602,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -2625,7 +2620,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2641,7 +2636,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -2657,7 +2652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2673,7 +2668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -2689,7 +2684,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2703,7 +2698,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2717,7 +2712,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2731,7 +2726,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -2747,7 +2742,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2763,7 +2758,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,7 +2774,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -2795,7 +2790,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2809,7 +2804,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2825,7 +2820,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2841,7 +2836,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -2857,7 +2852,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2873,7 +2868,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -2889,7 +2884,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -2905,7 +2900,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2921,7 +2916,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -2937,7 +2932,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -2953,7 +2948,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2969,7 +2964,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -2985,7 +2980,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -3003,7 +2998,7 @@
       </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -3021,7 +3016,7 @@
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -3037,7 +3032,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -3053,7 +3048,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -3069,7 +3064,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -3085,7 +3080,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3101,7 +3096,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3115,7 +3110,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3127,7 +3122,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3139,7 +3134,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3155,7 +3150,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3169,7 +3164,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3185,7 +3180,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -3201,7 +3196,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -3215,7 +3210,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -3231,7 +3226,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -3243,7 +3238,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
@@ -3255,7 +3250,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -3267,7 +3262,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>138</v>
       </c>
@@ -3283,7 +3278,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -3301,7 +3296,7 @@
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
@@ -3317,7 +3312,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -3333,7 +3328,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
@@ -3349,7 +3344,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -3385,7 +3380,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -3401,7 +3396,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
@@ -3413,7 +3408,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -3425,7 +3420,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -3443,7 +3438,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -3459,7 +3454,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3477,7 +3472,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -3518,7 +3513,7 @@
       <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
@@ -3528,7 +3523,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3536,7 +3531,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3556,7 +3551,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3568,7 +3563,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3580,7 +3575,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3596,7 +3591,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3607,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3619,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3631,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3648,7 +3643,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3660,7 +3655,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3672,7 +3667,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -3688,7 +3683,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3700,7 +3695,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -3716,7 +3711,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3734,7 +3729,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -3746,7 +3741,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -3758,7 +3753,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -3770,7 +3765,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3786,7 +3781,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -3802,7 +3797,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -3820,7 +3815,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -3836,7 +3831,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3852,7 +3847,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -3868,7 +3863,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -3884,7 +3879,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -3900,7 +3895,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3916,7 +3911,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -3932,7 +3927,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -3948,7 +3943,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -3960,7 +3955,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -3972,7 +3967,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -3984,7 +3979,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -3996,7 +3991,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -4008,7 +4003,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -4020,7 +4015,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -4032,7 +4027,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -4044,7 +4039,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -4056,7 +4051,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -4072,7 +4067,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -4084,7 +4079,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -4100,7 +4095,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -4116,7 +4111,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -4128,7 +4123,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -4140,7 +4135,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -4156,7 +4151,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -4172,7 +4167,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -4188,7 +4183,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -4204,7 +4199,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -4220,7 +4215,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -4232,7 +4227,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -4248,7 +4243,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -4264,7 +4259,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -4280,7 +4275,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -4296,7 +4291,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -4312,9 +4307,9 @@
       <c r="E55" s="1"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>19</v>
@@ -4323,14 +4318,14 @@
         <v>165</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4346,7 +4341,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -4358,7 +4353,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4370,7 +4365,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -4386,7 +4381,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -4400,7 +4395,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -4416,7 +4411,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -4428,7 +4423,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -4440,7 +4435,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -4452,7 +4447,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -4464,7 +4459,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
@@ -4476,7 +4471,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -4488,7 +4483,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>138</v>
       </c>
@@ -4500,7 +4495,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -4512,7 +4507,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
@@ -4528,7 +4523,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -4544,7 +4539,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
@@ -4556,7 +4551,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
@@ -4572,7 +4567,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -4584,7 +4579,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -4596,7 +4591,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
@@ -4608,7 +4603,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -4620,7 +4615,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -4654,7 +4649,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -4666,7 +4661,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -4697,11 +4692,11 @@
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
@@ -4713,21 +4708,21 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4749,7 +4744,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4759,7 +4754,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -4776,14 +4771,14 @@
         <v>189</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
@@ -4800,10 +4795,10 @@
         <v>189</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="52"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="16" t="s">
         <v>54</v>
       </c>
@@ -4820,10 +4815,10 @@
         <v>189</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="52"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
@@ -4840,10 +4835,10 @@
         <v>189</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="52"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
@@ -4860,10 +4855,10 @@
         <v>189</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="52"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
@@ -4880,10 +4875,10 @@
         <v>189</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="52"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="16" t="s">
         <v>105</v>
       </c>
@@ -4900,14 +4895,14 @@
         <v>189</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="52"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
@@ -4922,14 +4917,14 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="42" t="s">
-        <v>378</v>
+      <c r="G12" s="43" t="s">
+        <v>377</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -4944,12 +4939,12 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -4964,12 +4959,12 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
@@ -4980,16 +4975,16 @@
         <v>345</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>51</v>
       </c>
@@ -5004,12 +4999,12 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>142</v>
       </c>
@@ -5024,12 +5019,12 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>144</v>
       </c>
@@ -5044,16 +5039,16 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="16" t="s">
         <v>6</v>
       </c>
@@ -5070,14 +5065,14 @@
         <v>188</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="16" t="s">
         <v>103</v>
       </c>
@@ -5094,14 +5089,14 @@
         <v>188</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="52"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="16" t="s">
         <v>140</v>
       </c>
@@ -5119,17 +5114,17 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="16" t="s">
         <v>148</v>
       </c>
@@ -5146,18 +5141,18 @@
         <v>189</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
         <v>146</v>
       </c>
@@ -5172,14 +5167,14 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" s="45" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="16" t="s">
         <v>150</v>
       </c>
@@ -5194,10 +5189,10 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="16" t="s">
         <v>151</v>
       </c>
@@ -5212,14 +5207,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="16" t="s">
         <v>160</v>
       </c>
@@ -5233,13 +5228,13 @@
         <v>364</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="45" t="s">
-        <v>393</v>
+      <c r="F31" s="56"/>
+      <c r="G31" s="37" t="s">
+        <v>392</v>
       </c>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="16" t="s">
         <v>161</v>
       </c>
@@ -5253,15 +5248,15 @@
         <v>363</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="46"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="D33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
@@ -5276,14 +5271,14 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="12" t="s">
         <v>39</v>
       </c>
@@ -5298,10 +5293,10 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="43"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="53"/>
+      <c r="H35" s="44"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="12" t="s">
         <v>93</v>
       </c>
@@ -5316,10 +5311,10 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="43"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="53"/>
+      <c r="H36" s="44"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="12" t="s">
         <v>96</v>
       </c>
@@ -5334,20 +5329,20 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="43"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="53"/>
+      <c r="H37" s="44"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="20"/>
       <c r="E38" s="12"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="53"/>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
@@ -5357,17 +5352,17 @@
       <c r="C39" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="46" t="s">
         <v>332</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G39" s="53"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="12" t="s">
         <v>60</v>
       </c>
@@ -5377,15 +5372,15 @@
       <c r="C40" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="12"/>
       <c r="F40" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="43"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="G40" s="53"/>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -5395,15 +5390,15 @@
       <c r="C41" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="12"/>
       <c r="F41" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="43"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="G41" s="53"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5413,13 +5408,13 @@
       <c r="C42" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="50"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="12"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="53"/>
+      <c r="H42" s="44"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="12" t="s">
         <v>65</v>
       </c>
@@ -5429,15 +5424,15 @@
       <c r="C43" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="43" t="s">
         <v>327</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="53"/>
+      <c r="H43" s="44"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
@@ -5447,13 +5442,13 @@
       <c r="C44" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="43"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="12"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="53"/>
+      <c r="H44" s="44"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
         <v>68</v>
       </c>
@@ -5463,13 +5458,13 @@
       <c r="C45" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D45" s="43"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="12"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="43"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="53"/>
+      <c r="H45" s="44"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="12" t="s">
         <v>70</v>
       </c>
@@ -5479,17 +5474,17 @@
       <c r="C46" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="D46" s="44"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="12"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="53"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="D47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="16" t="s">
         <v>72</v>
       </c>
@@ -5504,14 +5499,14 @@
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -5526,10 +5521,10 @@
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="47"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="52"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="16" t="s">
         <v>76</v>
       </c>
@@ -5544,14 +5539,14 @@
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="46"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="52"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="12" t="s">
         <v>84</v>
       </c>
@@ -5566,14 +5561,14 @@
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="38" t="s">
-        <v>382</v>
+      <c r="G52" s="53" t="s">
+        <v>381</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="12" t="s">
         <v>86</v>
       </c>
@@ -5588,10 +5583,10 @@
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="38"/>
+      <c r="G53" s="53"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="12" t="s">
         <v>88</v>
       </c>
@@ -5606,12 +5601,12 @@
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="38"/>
+      <c r="G54" s="53"/>
       <c r="H54" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="12" t="s">
         <v>90</v>
       </c>
@@ -5626,20 +5621,20 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="38"/>
+      <c r="G55" s="53"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="12"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="38"/>
+      <c r="G56" s="53"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="12" t="s">
         <v>97</v>
       </c>
@@ -5654,10 +5649,10 @@
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="38"/>
+      <c r="G57" s="53"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="12" t="s">
         <v>98</v>
       </c>
@@ -5672,10 +5667,10 @@
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="38"/>
+      <c r="G58" s="53"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="12" t="s">
         <v>99</v>
       </c>
@@ -5690,10 +5685,10 @@
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="38"/>
+      <c r="G59" s="53"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="12" t="s">
         <v>100</v>
       </c>
@@ -5708,10 +5703,10 @@
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="38"/>
+      <c r="G60" s="53"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="12" t="s">
         <v>101</v>
       </c>
@@ -5726,10 +5721,10 @@
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="38"/>
+      <c r="G61" s="53"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="12" t="s">
         <v>106</v>
       </c>
@@ -5744,10 +5739,10 @@
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="38"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="12" t="s">
         <v>107</v>
       </c>
@@ -5762,10 +5757,10 @@
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="38"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="12" t="s">
         <v>108</v>
       </c>
@@ -5780,10 +5775,10 @@
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="38"/>
+      <c r="G64" s="53"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="12" t="s">
         <v>109</v>
       </c>
@@ -5798,10 +5793,10 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="38"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="12" t="s">
         <v>123</v>
       </c>
@@ -5816,10 +5811,10 @@
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="38"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="12" t="s">
         <v>138</v>
       </c>
@@ -5834,14 +5829,14 @@
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="38"/>
+      <c r="G67" s="53"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="16" t="s">
         <v>42</v>
       </c>
@@ -5856,14 +5851,14 @@
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="H69" s="45" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G69" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="16" t="s">
         <v>45</v>
       </c>
@@ -5878,14 +5873,14 @@
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="18"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="D71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="16" t="s">
         <v>79</v>
       </c>
@@ -5895,19 +5890,19 @@
       <c r="C72" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="50" t="s">
         <v>205</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="18"/>
-      <c r="G72" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="H72" s="45" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G72" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="16" t="s">
         <v>82</v>
       </c>
@@ -5917,17 +5912,17 @@
       <c r="C73" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D73" s="53"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="16"/>
       <c r="F73" s="18"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="D74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="16" t="s">
         <v>110</v>
       </c>
@@ -5937,19 +5932,19 @@
       <c r="C75" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="49" t="s">
         <v>169</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
-      <c r="G75" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="H75" s="45" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G75" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="16" t="s">
         <v>112</v>
       </c>
@@ -5959,17 +5954,17 @@
       <c r="C76" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="51"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="16"/>
       <c r="F76" s="18"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="D77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="16" t="s">
         <v>125</v>
       </c>
@@ -5979,19 +5974,19 @@
       <c r="C78" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="50" t="s">
         <v>310</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="18"/>
-      <c r="G78" s="45" t="s">
+      <c r="G78" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="H78" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="H78" s="63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="16" t="s">
         <v>127</v>
       </c>
@@ -6001,13 +5996,13 @@
       <c r="C79" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D79" s="53"/>
+      <c r="D79" s="51"/>
       <c r="E79" s="16"/>
       <c r="F79" s="18"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="61"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G79" s="39"/>
+      <c r="H79" s="41"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="16" t="s">
         <v>129</v>
       </c>
@@ -6022,14 +6017,14 @@
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="62"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G80" s="38"/>
+      <c r="H80" s="42"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="D81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="16" t="s">
         <v>157</v>
       </c>
@@ -6043,17 +6038,17 @@
         <v>359</v>
       </c>
       <c r="E82" s="16"/>
-      <c r="F82" s="39" t="s">
+      <c r="F82" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="G82" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="H82" s="45" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G82" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="16" t="s">
         <v>159</v>
       </c>
@@ -6067,31 +6062,16 @@
         <v>360</v>
       </c>
       <c r="E83" s="16"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F83" s="55"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="D84" s="2"/>
       <c r="F84" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H34:H46"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D72:D73"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G34:G46"/>
@@ -6107,6 +6087,21 @@
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G52:G67"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H34:H46"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H75:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6122,11 +6117,11 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
@@ -6138,16 +6133,16 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1">
       <c r="C1" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6167,11 +6162,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
@@ -6188,14 +6183,14 @@
       <c r="F4" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
@@ -6212,18 +6207,18 @@
       <c r="F5" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="52"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -6234,20 +6229,20 @@
         <v>230</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>123</v>
       </c>
@@ -6258,14 +6253,14 @@
         <v>236</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
@@ -6279,11 +6274,11 @@
         <v>218</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>144</v>
       </c>
@@ -6297,15 +6292,15 @@
         <v>234</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="60"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -6321,15 +6316,15 @@
       <c r="E13" s="12"/>
       <c r="F13" s="22"/>
       <c r="G13" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>58</v>
       </c>
@@ -6343,17 +6338,17 @@
         <v>265</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>60</v>
       </c>
@@ -6367,11 +6362,11 @@
         <v>267</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="60"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>62</v>
       </c>
@@ -6385,13 +6380,13 @@
         <v>271</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="62"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
@@ -6405,15 +6400,15 @@
         <v>269</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="60"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>142</v>
       </c>
@@ -6428,12 +6423,12 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
@@ -6448,10 +6443,10 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="62"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
@@ -6466,10 +6461,10 @@
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="62"/>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="12" t="s">
         <v>51</v>
       </c>
@@ -6484,14 +6479,14 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="62"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="16" t="s">
         <v>105</v>
       </c>
@@ -6505,17 +6500,17 @@
         <v>289</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="H25" s="45" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -6529,11 +6524,11 @@
         <v>305</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="63"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -6547,11 +6542,11 @@
         <v>303</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="63"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="16" t="s">
         <v>56</v>
       </c>
@@ -6565,11 +6560,11 @@
         <v>301</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="63"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="16" t="s">
         <v>57</v>
       </c>
@@ -6583,15 +6578,15 @@
         <v>299</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="58"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="16" t="s">
         <v>148</v>
       </c>
@@ -6609,15 +6604,15 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="D33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="12" t="s">
         <v>107</v>
       </c>
@@ -6631,15 +6626,15 @@
         <v>293</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G34" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G34" s="48" t="s">
-        <v>388</v>
-      </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="12" t="s">
         <v>84</v>
       </c>
@@ -6653,11 +6648,11 @@
         <v>273</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="49"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="12" t="s">
         <v>88</v>
       </c>
@@ -6671,11 +6666,11 @@
         <v>275</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="49"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="12" t="s">
         <v>90</v>
       </c>
@@ -6689,11 +6684,11 @@
         <v>277</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="49"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="12" t="s">
         <v>97</v>
       </c>
@@ -6707,11 +6702,11 @@
         <v>279</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="49"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
         <v>98</v>
       </c>
@@ -6725,11 +6720,11 @@
         <v>281</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="49"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="12" t="s">
         <v>99</v>
       </c>
@@ -6743,11 +6738,11 @@
         <v>283</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="49"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
         <v>100</v>
       </c>
@@ -6761,11 +6756,11 @@
         <v>285</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="49"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
         <v>106</v>
       </c>
@@ -6779,11 +6774,11 @@
         <v>291</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="49"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="12" t="s">
         <v>101</v>
       </c>
@@ -6797,13 +6792,13 @@
         <v>287</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="49"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="12" t="s">
         <v>109</v>
       </c>
@@ -6817,11 +6812,11 @@
         <v>297</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="49"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
         <v>108</v>
       </c>
@@ -6835,19 +6830,19 @@
         <v>295</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="50"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="D46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="D47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="16" t="s">
         <v>110</v>
       </c>
@@ -6857,19 +6852,19 @@
       <c r="C48" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="51" t="s">
-        <v>396</v>
+      <c r="D48" s="49" t="s">
+        <v>395</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>390</v>
+        <v>396</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>389</v>
       </c>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="16" t="s">
         <v>112</v>
       </c>
@@ -6879,23 +6874,23 @@
       <c r="C49" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="16"/>
       <c r="F49" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="G49" s="46"/>
+        <v>397</v>
+      </c>
+      <c r="G49" s="38"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="16" t="s">
         <v>157</v>
       </c>
@@ -6909,15 +6904,15 @@
         <v>359</v>
       </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="54" t="s">
+      <c r="F52" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="G52" s="45" t="s">
-        <v>391</v>
+      <c r="G52" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="16" t="s">
         <v>159</v>
       </c>
@@ -6931,12 +6926,16 @@
         <v>360</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="46"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="F34:F45"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G34:G45"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H15:H18"/>
@@ -6953,10 +6952,6 @@
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F34:F45"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G34:G45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
